--- a/imageCreationExcel/back/darkyobi/darkyobi_8.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_8.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13.06330492192317</v>
+        <v>1.059288816076744</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9656843059559569</v>
+        <v>0.9057284293843743</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.156265022093246</v>
+        <v>11.76545491956156</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_T_brightness13.0_gamma0.97_contrast1.2.jpg</t>
+          <t>1_I_contrast1.1_sharpness0.91_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.069770588824542</v>
+        <v>0.1923511677111175</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.965641133046852</v>
+        <v>23.72404705779989</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.085582130019191</v>
+        <v>0.8006649275017341</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_S_gamma1.1_brightness9.0_contrast1.1.jpg</t>
+          <t>2_0_sharpness0.19_brightness24.0_contrast0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -570,24 +570,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1172314426177007</v>
+        <v>1.048610136838196</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6717616565327464</v>
+        <v>1.000080924597061</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>18.59864803126015</v>
+        <v>17.46485579275543</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_S_sharpness0.12_gamma0.67_equalization19.0.jpg</t>
+          <t>3_2_gamma1.0_contrast1.0_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8132185285894586</v>
+        <v>7.651023386058236</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,22 +629,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5654129964931426</v>
+        <v>0.9864416552618787</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>25.72534860592279</v>
+        <v>1.101304087753994</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_7_contrast0.81_gamma0.57_equalization26.0.jpg</t>
+          <t>4_9_brightness7.7_gamma0.99_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6609467578507811</v>
+        <v>0.9870805904222353</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,22 +671,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20.06132297017784</v>
+        <v>15.83992211825366</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.1854560215310228</v>
+        <v>0.5084749922166468</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_E_gamma0.66_brightness20.0_sharpness0.19.jpg</t>
+          <t>5_S_contrast0.99_brightness16.0_gamma0.51.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,15 +705,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7715594006912718</v>
+        <v>0.7921684548681355</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.057988471671845</v>
+        <v>0.7992325046081166</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.773064154505784</v>
+        <v>13.54294699497992</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_P_sharpness0.77_contrast1.1_equalization8.8.jpg</t>
+          <t>6_3_sharpness0.79_gamma0.8_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.083919508437398</v>
+        <v>1.18794973131998</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.3188344762253369</v>
+        <v>0.7205175177009853</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>31.31872218165416</v>
+        <v>19.6677783375506</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_contrast1.1_sharpness0.32_equalization31.0.jpg</t>
+          <t>7_E_contrast1.2_sharpness0.72_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -780,16 +780,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8434524765778201</v>
+        <v>14.83666950565701</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.1308925160724934</v>
+        <v>0.7941180338731838</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>14.64231915063618</v>
+        <v>0.6823372914647474</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_T_contrast0.84_sharpness0.13_equalization15.0.jpg</t>
+          <t>8_7_brightness15.0_sharpness0.79_gamma0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9111221508544844</v>
+        <v>1.032251849565953</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.130403285585909</v>
+        <v>29.18859273917379</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>30.5255063285308</v>
+        <v>0.6308577737906459</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_B_sharpness0.91_contrast1.1_equalization31.0.jpg</t>
+          <t>9_8_contrast1.0_brightness29.0_sharpness0.63.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9240128716631009</v>
+        <v>1.049865637351657</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9016734059631286</v>
+        <v>0.4659516660067122</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>28.04850804047524</v>
+        <v>0.9127383998781952</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_0_sharpness0.92_gamma0.9_equalization28.0.jpg</t>
+          <t>10_B_brightness1.0_sharpness0.47_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.054431673715187</v>
+        <v>0.8111407860257576</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.4987898686286021</v>
+        <v>0.02979673747775391</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>29.078541361786</v>
+        <v>27.48768276047925</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_B_contrast1.1_sharpness0.5_equalization29.0.jpg</t>
+          <t>11_T_gamma0.81_sharpness0.03_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -957,15 +957,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.074024252702643</v>
+        <v>0.8048772564848731</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.4384223021239873</v>
+        <v>0.9097341302036741</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>28.73967068240482</v>
+        <v>13.89084143046743</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_E_gamma1.1_sharpness0.44_equalization29.0.jpg</t>
+          <t>12_E_gamma0.8_contrast0.91_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.049468531474832</v>
+        <v>1.068003112539834</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1156849676225561</v>
+        <v>0.9868235609872974</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6.164437010842505</v>
+        <v>0.879474120750531</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_E_gamma1.0_sharpness0.12_equalization6.2.jpg</t>
+          <t>13_B_contrast1.1_sharpness0.99_gamma0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1037,34 +1037,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.046487748757498</v>
+        <v>0.6052838052120221</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.006661567433416</v>
+        <v>0.9818422041331117</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>31.9379591829255</v>
+        <v>0.7775770755582174</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_B_contrast1.0_gamma1.0_equalization32.0.jpg</t>
+          <t>14_B_sharpness0.61_contrast0.98_gamma0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1722859271569602</v>
+        <v>0.5110206714723198</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.412800818511963</v>
+        <v>19.62479710663704</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8084577071597299</v>
+        <v>0.3117949242521343</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_P_sharpness0.17_brightness8.4_gamma0.81.jpg</t>
+          <t>15_1_gamma0.51_brightness20.0_sharpness0.31.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,16 +1116,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1940337606634346</v>
+        <v>0.5366895618393133</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8469365771182911</v>
+        <v>0.8979865085872013</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>17.11087027021462</v>
+        <v>7.202324940234404</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_2_sharpness0.19_contrast0.85_equalization17.0.jpg</t>
+          <t>16_S_gamma0.54_contrast0.9_equalization7.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,30 +1167,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7.154219165571782</v>
+        <v>2.314577923316171</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9529904888598966</v>
+        <v>0.6693389455139075</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8421163412780825</v>
+        <v>1.196365407412558</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_8_brightness7.2_contrast0.95_gamma0.84.jpg</t>
+          <t>17_9_brightness2.3_gamma0.67_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5083714824908656</v>
+        <v>0.05914319312655725</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.5781557714723559</v>
+        <v>0.8204610065113691</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>25.2958977917498</v>
+        <v>21.68146283853075</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_0_sharpness0.51_gamma0.58_brightness25.0.jpg</t>
+          <t>18_E_sharpness0.059_gamma0.82_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21.47777787160539</v>
+        <v>0.5452594502378481</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8177178156596817</v>
+        <v>0.793271365672337</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8856028286933495</v>
+        <v>27.65401836324891</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_I_brightness21.0_contrast0.82_gamma0.89.jpg</t>
+          <t>19_8_gamma0.55_sharpness0.79_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9415450924513497</v>
+        <v>17.24711269524726</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6628891446116598</v>
+        <v>0.3026277732182793</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8.619335614502992</v>
+        <v>1.084431650578914</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_contrast0.94_gamma0.66_brightness8.6.jpg</t>
+          <t>20_0_brightness17.0_sharpness0.3_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9030691448316677</v>
+        <v>0.8521190629113239</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7151211743620438</v>
+        <v>15.42781276575586</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>22.23659978815457</v>
+        <v>0.5193757759284348</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_2_contrast0.9_gamma0.72_equalization22.0.jpg</t>
+          <t>21_2_contrast0.85_brightness15.0_gamma0.52.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,24 +1368,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8340986665011193</v>
+        <v>1.1799830270898</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3847079934518807</v>
+        <v>0.8514687814149464</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.083189753744565</v>
+        <v>25.26351335540198</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_9_gamma0.83_sharpness0.38_equalization4.1.jpg</t>
+          <t>22_3_contrast1.2_gamma0.85_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1419,30 +1419,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8025494117626836</v>
+        <v>0.2458105288899373</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>24.66378163716797</v>
+        <v>0.9193193501260659</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.7594183357538227</v>
+        <v>17.87702622332422</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_3_sharpness0.8_brightness25.0_gamma0.76.jpg</t>
+          <t>23_3_sharpness0.25_gamma0.92_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9702701854241135</v>
+        <v>1.18202540617519</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.027754923330616</v>
+        <v>10.42302935783271</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7.215924965697472</v>
+        <v>0.8872482297894925</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_9_sharpness0.97_contrast1.0_equalization7.2.jpg</t>
+          <t>24_I_contrast1.2_brightness10.0_gamma0.89.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.7585704673253386</v>
+        <v>0.8752575593338765</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.04727539204341447</v>
+        <v>0.217748550474001</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.9426786504768347</v>
+        <v>8.525594077405875</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_I_gamma0.76_sharpness0.047_contrast0.94.jpg</t>
+          <t>25_9_contrast0.88_sharpness0.22_equalization8.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.195041597748375</v>
+        <v>0.8361118130638399</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5184867328693005</v>
+        <v>0.9414143058801665</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.8738917304886207</v>
+        <v>16.75755085672705</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_sharpness0.2_gamma0.52_contrast0.87.jpg</t>
+          <t>26_B_contrast0.84_gamma0.94_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1583,34 +1583,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5143129458008995</v>
+        <v>24.63995159251928</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.117939510967848</v>
+        <v>0.8907658119927533</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>19.87113602935418</v>
+        <v>0.3705565593144704</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_gamma0.51_contrast1.1_equalization20.0.jpg</t>
+          <t>27_I_brightness25.0_gamma0.89_sharpness0.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.843844152219003</v>
+        <v>0.2604936465683098</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8484022214862295</v>
+        <v>0.8966614654348974</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8.371223578884095</v>
+        <v>17.39295863258393</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_7_contrast0.84_gamma0.85_equalization8.4.jpg</t>
+          <t>28_2_sharpness0.26_gamma0.9_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.013788469828406</v>
+        <v>1.034653458624855</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6711312467473785</v>
+        <v>0.9961110773906738</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>25.01378884110717</v>
+        <v>3.681866562267108</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_contrast1.0_sharpness0.67_equalization25.0.jpg</t>
+          <t>29_E_gamma1.0_contrast1.0_brightness3.7.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9380560724826686</v>
+        <v>18.21224614992502</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>8.470201907745446</v>
+        <v>1.076141745109869</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.8671652499984341</v>
+        <v>0.6766704676925797</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_B_gamma0.94_brightness8.5_contrast0.87.jpg</t>
+          <t>30_2_brightness18.0_contrast1.1_gamma0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6392189922485273</v>
+        <v>0.8183212302962649</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8823953727409564</v>
+        <v>0.6736760951662822</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>27.09745008083966</v>
+        <v>21.75879467006121</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_2_sharpness0.64_gamma0.88_equalization27.0.jpg</t>
+          <t>31_0_contrast0.82_gamma0.67_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9549446550817025</v>
+        <v>1.070642206667603</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>27.53072150996784</v>
+        <v>0.9976492044834141</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.2917584498305696</v>
+        <v>20.30083924046944</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_C_gamma0.95_brightness28.0_sharpness0.29.jpg</t>
+          <t>32_T_gamma1.1_sharpness1.0_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,30 +1839,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6.167524394994494</v>
+        <v>16.11731022655178</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8802765734705226</v>
+        <v>0.6162222440273875</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.067524006188426</v>
+        <v>0.8058614021704431</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_brightness6.2_sharpness0.88_gamma1.1.jpg</t>
+          <t>33_I_brightness16.0_gamma0.62_contrast0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6566354342293457</v>
+        <v>5.510922515955546</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11.22502860884934</v>
+        <v>0.7648766416585034</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.156798146943469</v>
+        <v>0.5979849846565956</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_gamma0.66_brightness11.0_contrast1.2.jpg</t>
+          <t>34_3_brightness5.5_gamma0.76_sharpness0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8135871709270868</v>
+        <v>0.3276603889403699</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>24.16829320412203</v>
+        <v>14.79912375974081</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.1220544297269439</v>
+        <v>0.8260192169502288</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_B_contrast0.81_brightness24.0_sharpness0.12.jpg</t>
+          <t>35_3_sharpness0.33_brightness15.0_gamma0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7685144684394927</v>
+        <v>1.104773737935648</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9152219648059887</v>
+        <v>29.38666867109289</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>27.21540098918766</v>
+        <v>1.042861951763762</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_C_sharpness0.77_contrast0.92_equalization27.0.jpg</t>
+          <t>36_0_contrast1.1_brightness29.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,16 +1998,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.043761218876886</v>
+        <v>4.987875588572154</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.935656340884618</v>
+        <v>0.5868114498863057</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>31.6891234882792</v>
+        <v>0.8800966398096688</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_8_contrast1.0_gamma0.94_equalization32.0.jpg</t>
+          <t>37_T_brightness5.0_gamma0.59_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,30 +2049,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.059649052065633</v>
+        <v>0.583660220567411</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>14.93624511037244</v>
+        <v>0.2903194561251526</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.5701716537190183</v>
+        <v>13.80676572942796</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_7_gamma1.1_brightness15.0_sharpness0.57.jpg</t>
+          <t>38_0_gamma0.58_sharpness0.29_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2087,19 +2087,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9630567859326619</v>
+        <v>0.6394935412838689</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7526978504741964</v>
+        <v>0.1518828281999811</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>22.78595136188584</v>
+        <v>21.44340471081767</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_B_contrast0.96_gamma0.75_equalization23.0.jpg</t>
+          <t>39_B_gamma0.64_sharpness0.15_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.076798215344527</v>
+        <v>0.7323341026135228</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7348887881627033</v>
+        <v>0.8563661031244844</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.8051729013822072</v>
+        <v>18.71475744150802</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_P_contrast1.1_gamma0.73_sharpness0.81.jpg</t>
+          <t>40_2_gamma0.73_sharpness0.86_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,30 +2175,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.2011030037848611</v>
+        <v>0.476921084429889</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9037083834857329</v>
+        <v>0.620847721875223</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.7705059728247245</v>
+        <v>25.19400977458981</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_I_sharpness0.2_contrast0.9_gamma0.77.jpg</t>
+          <t>41_P_sharpness0.48_gamma0.62_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,24 +2208,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.188691530216232</v>
+        <v>0.8101667357876856</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.761115212376132</v>
+        <v>0.9539270224723089</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>21.72280954804204</v>
+        <v>24.33339794488306</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_2_contrast1.2_sharpness0.76_equalization22.0.jpg</t>
+          <t>42_C_gamma0.81_contrast0.95_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,15 +2259,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.7488807712081499</v>
+        <v>0.5397536430608167</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.178243130396415</v>
+        <v>0.9999859841870832</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>11.05838010781969</v>
+        <v>10.9499175890594</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_1_gamma0.75_contrast1.2_equalization11.0.jpg</t>
+          <t>43_9_gamma0.54_sharpness1.0_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6224549266325227</v>
+        <v>0.9475250109271368</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.4812959952901873</v>
+        <v>0.1619669576151503</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.110680143573425</v>
+        <v>8.739297299569564</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_E_gamma0.62_sharpness0.48_contrast1.1.jpg</t>
+          <t>44_C_contrast0.95_sharpness0.16_equalization8.7.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,24 +2334,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5609168677066309</v>
+        <v>0.9040401188070117</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.7618186467890602</v>
+        <v>0.7033324980277376</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>28.13463604938414</v>
+        <v>9.936527820702851</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_2_sharpness0.56_gamma0.76_equalization28.0.jpg</t>
+          <t>45_3_gamma0.9_sharpness0.7_equalization9.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,16 +2376,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.199089624907453</v>
+        <v>7.22833273079928</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,22 +2393,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6340937990964937</v>
+        <v>0.5140278154302941</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4.661282560599505</v>
+        <v>1.040844458616785</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_7_contrast1.2_gamma0.63_brightness4.7.jpg</t>
+          <t>46_E_brightness7.2_gamma0.51_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,24 +2418,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8319010429610942</v>
+        <v>0.2703778663991775</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.3345390155740817</v>
+        <v>1.04037442592826</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>9.191160777783377</v>
+        <v>24.516049265681</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_3_contrast0.83_sharpness0.33_equalization9.2.jpg</t>
+          <t>47_0_sharpness0.27_contrast1.0_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9184707832435342</v>
+        <v>0.7578728243115678</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8031263628040596</v>
+        <v>0.90722612858728</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>12.56646273912824</v>
+        <v>16.19956106283254</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_3_gamma0.92_sharpness0.8_equalization13.0.jpg</t>
+          <t>48_0_gamma0.76_sharpness0.91_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
